--- a/ResultadoEleicoesDistritos/VILA REAL_SABROSA.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_SABROSA.xlsx
@@ -597,55 +597,55 @@
         <v>1832</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J2" t="n">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T2" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>1217</v>
+        <v>1114</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1142</v>
+        <v>1170</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
